--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -15,11 +15,10 @@
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="30" sheetId="2" r:id="rId5"/>
     <sheet name="99" sheetId="3" r:id="rId6"/>
-    <sheet name="01" sheetId="4" r:id="rId7"/>
-    <sheet name="04" sheetId="5" r:id="rId8"/>
-    <sheet name="03" sheetId="6" r:id="rId9"/>
+    <sheet name="03" sheetId="4" r:id="rId7"/>
+    <sheet name="01" sheetId="5" r:id="rId8"/>
+    <sheet name="04" sheetId="6" r:id="rId9"/>
     <sheet name="undefined" sheetId="7" r:id="rId10"/>
-    <sheet name="05" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -75,58 +74,382 @@
     <t xml:space="preserve">RECEPTOR: USO CFDI</t>
   </si>
   <si>
-    <t xml:space="preserve">24224150-8703-4EEB-88AE-D8ECAC4CDEB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T10:20:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42737.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39571.30</t>
+    <t xml:space="preserve">1752119E-D1C3-41A6-93AA-18CA3D1BCF0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T16:19:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18570.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16008.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVE111214JI7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERTOS EN VENTILACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEI1804262B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41F0AF4F-DADA-4F1F-8B0F-08D03F23CFDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T16:16:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13508.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11644.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">878f664a-df49-4b74-82a5-0bd39bfb9068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01T11:31:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.57</t>
   </si>
   <si>
     <t xml:space="preserve">MXN</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVN7407019H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBERIAS Y VALVULAS DEL NOROESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEI1804262B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+    <t xml:space="preserve">CGP970522EE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSORCIO GASOLINERO PLUS</t>
   </si>
   <si>
     <t xml:space="preserve">G03</t>
   </si>
   <si>
-    <t xml:space="preserve">46089411-4DC0-4D2A-83B2-214732E5BB93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T09:56:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367826.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317092.15</t>
+    <t xml:space="preserve">923A43D7-7946-4841-9633-7ED328B9CBF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T16:18:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4492.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3872.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4B9BE1B-A446-416B-BCB5-8BE575412B1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T16:20:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22812.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19666.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4123d9e-5ab6-49ee-8b40-355d27c620c9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-12T13:16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142924.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123210.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNA040915IJ3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO NAMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0FC393C2-CF42-4494-A3EB-9B9D2C51B6C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:06:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431034.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGR960715HK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOHNSON CONTROLS BTS MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D5E26F7-759D-4DA2-BA84-9B9D2C5104AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:03:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452711E2-8F67-4A55-97FB-A9E2042DFD3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-16T06:10:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPT890516JP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PLAY TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46C08F16-7DF7-49D7-95B6-9B9D2C51B12F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T16:44:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46ffbc4a-724b-45aa-b1c8-11fec43f7526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-12T13:13:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211046.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181936.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4C27B367-9A49-4644-BF89-9B9D2C516E38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:10:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4DB0298A-7BDD-4431-8327-9B9D2C51D7CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:01:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115457.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99532.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4FD614B1-1712-4EA5-A967-AA88AC318B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBO140305DH0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6B699F3F-A012-4275-BD0A-9B9D2C511AC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:05:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83B3BDEA-D3DB-4E27-862B-91382440EBF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9591349D-1D10-426B-8C93-9B9D2C510EF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:00:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A31F7A7C-0B64-4A53-BF53-9B9D2C514E0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:07:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A792521A-B1E2-4AB5-AE60-9B9D2C51C385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:05:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF3F30A7-440E-4F17-87D7-9B9D2C517619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:06:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B323DBC0-3684-4823-8408-9B9D2C51A9C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T10:09:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334090.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288008.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B827BF70-113D-4CA2-8D52-9B9D2C51EDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:01:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDC4DA02-C556-4CFC-A7C7-9B9D2C51CB88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:02:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7EA26B4-D375-4AEC-A86D-06C1ED4F5D30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T16:14:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62908.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54231.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC1FBF8E-33DF-46B4-9F0C-9B9D2C51522E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T14:04:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03D47672-2544-44CC-9FC9-B3FE733810E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T19:03:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8730.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7525.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCA190618EAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIOS CORPORATIVOS AMTEZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04A2E47E-1634-47A7-9091-1A562F7942C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-02T18:05:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO841221TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL ELECTRICA ORTEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06A68045-C431-4E30-9BA4-E17EEB32226E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T15:16:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1379.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIGB830511FH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANCA ESTELA VILLEGAS GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0E9FB2C6-3936-4C41-ACE1-24AAC97740C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.04</t>
   </si>
   <si>
     <t xml:space="preserve">SME211201URA</t>
@@ -135,163 +458,910 @@
     <t xml:space="preserve">SBV MERCANTIL</t>
   </si>
   <si>
-    <t xml:space="preserve">G01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59c7a18f-42ea-450c-adac-260695608e9e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-02T10:58:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6092.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5252.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGP970522EE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSORCIO GASOLINERO PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72B261EB-DD9A-4A4C-89D4-6D9839E3DA4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-09T12:42:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35644.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33003.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78FD1B6C-9A5C-4896-A0FB-FC1327C4D6DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04T09:27:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8422.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7798.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C92B5262-3563-4AE3-85D3-553E6035E261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T10:05:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">377126.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325109.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09A4B147-1E47-46C6-82C2-2ACDCD7518D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-09T12:32:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1722.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1595.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25B55B59-55ED-4CC0-A004-8D07B1F5B911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T09:49:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36910.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31818.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F347688D-BB73-4429-AAB7-76FE4D9CD97B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-03T14:06:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">745.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">642.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEC810901298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERICAN EXPRESS COMPANY MEXICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">077B00A4-0917-59B6-8121-5D3B5223C49C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T17:04:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.86</t>
+    <t xml:space="preserve">16b2605b-5e9a-4d0a-995a-8c760a269448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01T11:30:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F38D652-39A8-415A-897C-8007504D3E2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T16:52:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1590.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1370.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUMJ810415QK7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANET ZUÑIGA MONCADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30fc4816-3dd6-4b75-987e-403d51f7e8dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T17:41:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2586.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38A991E2-2816-4BEA-A03A-D2D0E7314F72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T14:17:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47C0790A-1478-44A9-800E-DB03C3F8B948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T19:49:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1566.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACG610511SK6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL SANTOS CAMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4AC1F6AB-09D4-4C34-9AB7-A71C7A8CE1EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T13:12:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4408.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUAE810729G78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO LUNA AGUIRRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f386f9f-afde-49ff-88af-0c97b640f894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-15T14:27:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153749.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132542.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZA220308390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERMAT ZADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55E98CE1-05E2-41C5-A78D-FC293913AD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T20:20:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56950.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49095.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNA1708046Q9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIAL NABOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5F3CDFEB-B6A0-41F0-B9DA-18ED7EDBD7AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T08:13:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27445.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23659.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERH750317923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO CERVANTES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64d3a156-dbfc-44b2-b81f-f64138a33192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T07:45:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF891031LT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65e77239-bb80-49f6-af7c-e6e5918d6f3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T18:37:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125171.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107906.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71C49B27-BFA8-49AC-B12E-63F00911AEA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T17:46:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6699.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5775.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STA130808M2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLUCIONES TERMICAS Y ACUSTICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7656E9DE-DEBC-475F-BBB2-27369A34F75D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-20T18:20:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21924.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQU150527RV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76ebcf92-d6bf-416e-9c19-c4ca6950f44a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-19T10:57:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2037.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1756.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DES020309CM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA ELECTRICA EL SEGURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7A703CAC-55C4-48DC-99EE-CCF6B1FE4313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-09T11:26:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30171.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26010.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C0FDD4F-D52B-4686-9CF2-7FF2152DE897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-15T13:37:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16482.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14209.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA090304LD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA TERMICA ACUSTICA DEL CENTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e6f8338-d944-4335-aa63-b0b11792d513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-15T16:42:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1128.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">973.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUGE821003Q72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERIK AURELIO GUTIERREZ GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86272C58-A4D3-4492-9DAA-9EF68A2A5CDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-27T19:31:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEP2302114R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA ELECTRICA Y PLOMERIA ARIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872D024A-1DD7-4876-BF96-5C94058A50F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T19:06:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8ad444c7-4fd0-4a7c-8f70-b3ecdbce2def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-11T16:30:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1002.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">864.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYA000718H99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8C1F874C-6902-47EE-B1A9-656D1B2BE736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T10:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1624.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">956B35FA-2C0A-4AFD-940D-E0F123F71EF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T13:47:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">732.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95E6D40F-4DBF-42E6-98F6-E7CB4106DECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T13:04:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1028.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">886.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAGJ691121E84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN CARLOS SANCHEZ GORDILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97c870fe-0c74-4ffa-8df5-35714b0639ef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-27T12:55:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIM210722CG9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO INNOVACION MAR GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1AC9BD7-BE14-4C6E-8953-D5122AC967DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T17:49:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3375.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2909.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVI140403RH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEROS VIJAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A919FA93-B2C3-4A68-B9F2-F534937CE6E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T15:08:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6728.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANJ190215L4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASESORES NOTARIALES JIUTEPEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEEF909B-8EBC-4618-9DA6-66981BFCAD96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T08:11:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9280.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD85EA05-589E-4904-8E05-9DF2E6DBED6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T08:18:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA5C7CD6-33A1-5998-8B3E-E015A53E9370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIDJ9211063M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVIER BRITO DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDBEDD6D-5631-44CC-9C69-261CD969F152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T20:09:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41653.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35907.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM050215JK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCCIONES Y ARRENDAMIENTO DE MAQUINARIA COARBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddf60c33-dbd8-4114-b1a6-9bd609be5854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-20T15:35:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3448.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7b14494-5f71-42a4-981e-10e10c6e303b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T10:39:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13050.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11250.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">069388C5-CFEA-D14E-8456-D41CA7F78F08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01T13:22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.11</t>
   </si>
   <si>
     <t xml:space="preserve">01</t>
   </si>
   <si>
+    <t xml:space="preserve">SME051013BQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIENDAS FIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0de2500c-0aa4-4752-9d1b-383f8f1d6468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-09T16:08:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDM001017AS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME DEPOT MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b7c93e3-29bc-4ce1-b1c0-004e86701b84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T14:17:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CME030219B64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA MEXIQUENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BB8DD8C-F17D-40B0-A875-DDC79E88CBDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-28T17:40:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAAS740628SB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFIA VALDEZ ARAGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A9238A1-9CA8-407E-A946-1CEA9BF81F61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-02T14:54:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM8801152E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHL EXPRESS MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31D83351-CD20-3D4E-9A3D-0550B637F359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-22T08:55:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32c90362-1405-41b6-a8fd-768dcf2f1d20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:04:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REA880909AU8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED ESTATAL DE AUTOPISTAS DE NUEVO LEON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d483528-de34-41c6-8af1-ddb08af864c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T18:57:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3dc9bbd8-1f86-4ca7-8862-7ac7e0bed1d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T00:01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCO0302147T9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESARROLLADORA DE CONCESIONES OMEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3E7BD91F-9202-C74C-80E4-CB3900FE293D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-14T09:59:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4519b708-ce8a-4af6-a3df-20f1c22f67fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T09:10:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47207a92-8e59-47e2-96e0-e3653e2c1653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:46:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIP070831V89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO DE INFRAESTRUCTURA POTOSINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473B8AFF-7181-4012-A770-12C0AA046E3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T08:42:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ED667DF-9AB9-4BF6-9128-2B9E625BD96A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T15:30:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSO991022PB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIENDAS SORIANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5998AD0C-4F33-5682-B8A5-40B75E5992A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T19:19:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.24</t>
+  </si>
+  <si>
     <t xml:space="preserve">FNI970829JR9</t>
   </si>
   <si>
     <t xml:space="preserve">FONDO NACIONAL DE INFRAESTRUCTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08668247-B8E9-4A65-B794-72EFD14C23B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T15:59:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM8801152E9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHL EXPRESS MEXICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D168548-9902-56D4-A7A0-AF17ADB3640D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T17:04:41</t>
+    <t xml:space="preserve">5bf967ed-f53d-4145-9892-f084dfac56eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:42:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6c64b515-ec06-481b-9635-a0bd1fa825bf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:37:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7afd9f90-9e96-41f9-8b81-65f6be0e5da2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T14:07:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1647.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1425.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCV9805204C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL OLIVO DE CD VICTORIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82e6bdae-25a9-4bea-b814-26d9a428a724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-04T16:15:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8C30578C-AD7F-5B44-AFCA-EB922E798BEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T09:12:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">592.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9076EDE3-6A60-4993-8D0F-59464B371C9F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T13:16:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98d45a9c-b068-4095-8fcc-e3bf5d802672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:29:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2ED1353-3CEE-4D44-8B14-648C7DDBD9D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T18:06:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3A309E0-82A6-4CC1-AB98-5CF2E3495730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-13T17:45:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4104163-687F-56EE-8387-B5BE7F419AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T12:16:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a75131e3-5ddc-4f0c-9d81-981ed5147e3f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T13:21:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A76CAD60-6DEB-5269-A157-CA380D3E8351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-15T17:19:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A98A8325-7608-4A0C-BA8B-7C7357B2003A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T11:34:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMR190225QE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRETODO M.R.O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B23EDC2D-1640-4A44-82F5-19FFC2CEB0A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T15:34:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEF91D4A-7695-5C91-8C9A-60E4D23222D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T11:27:14</t>
   </si>
   <si>
     <t xml:space="preserve">102.00</t>
@@ -300,214 +1370,148 @@
     <t xml:space="preserve">87.93</t>
   </si>
   <si>
-    <t xml:space="preserve">28AFD6D5-D924-565C-8F6E-97AAA7EE0194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T17:04:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">391B01FF-C164-56DF-948D-45F5722FC0E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">554a3426-c3fd-47a0-b1e2-08b12bbd7bd4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-08T08:24:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL8902286T7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO ALCIONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5AB93053-9C93-41EF-AB0E-850970ABF692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T16:59:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CME030219B64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONCESIONARIA MEXIQUENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5F598556-5C1A-4642-8A04-F6EB1861B4BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-06T09:17:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBA220211MR8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRETERIA BALDERRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">692B8D12-31FA-51F7-86BC-C13FFED7F1E8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T17:04:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79853BA2-2763-5CAD-9C3D-0E1D12C833C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7B21FA17-736D-4973-912D-0CBD9E5D2A6F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04T11:01:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">618.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARA520424BC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRA NAVARRO RENTERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87AEEB8C-234E-503C-958E-D6AA36204A3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9CD1E006-0A4A-5281-AED4-0DCA2C0B51CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1697D3C-EFEA-51CC-B1F6-984AD04ABF41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A887C665-6911-5BA2-B074-6BA1870EAABD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4A8017A-5D4B-5C06-9612-5E9AEB061C7F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B7707B9E-4B53-53BC-A83B-ABCF574AD955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T17:04:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD880DD6-FD0E-5546-9269-7DDD56DED7C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0fa7d659-026a-4221-b3ee-59a188e792a3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T10:52:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7262.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6453.16</t>
+    <t xml:space="preserve">CD0C8BEE-1CE5-804D-9366-8E2149C7FED8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01T13:18:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E671EF45-CBE1-4844-97AD-21266A8A609C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T09:14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EB4CB490-BC65-5E5C-A5CC-9EA24185E63D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T12:28:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA900528FIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEXICANA DE TECNICOS EN AUTOPISTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECBDC8AD-92A4-44C0-9958-9A26F75E1CF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAE9048E-8CB7-4AB8-A495-9E6EF01ECA49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-27T08:06:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECU120612LB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTROCOMPONENTES DE CUAUTLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe59442b-0981-48d1-80f0-44ea98228bdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T14:04:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIS981002NK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA DE INFRAESTRUCTURA DE SAN LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF33FA14-D1BA-4693-9B94-6FE359B84B8D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-23T11:24:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16E45A75-6FE6-58C2-A087-19DA0796C21A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-17T17:59:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1423.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1318.31</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
-    <t xml:space="preserve">ANA050518RL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEROENLACES NACIONALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13EAE95E-16AA-4390-A27B-101D1321076E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04T12:36:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">564.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUT951215PZ7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUTORNEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18AFA11B-ACD9-41E9-B8EC-6B6AD8F55583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04T12:52:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">502.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">583236ED-D686-4833-A2CB-9C3FE749B67A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01T17:33:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1728.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1495.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCA0908244E7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIO CALIPSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA304A39-D542-42D8-BE84-0C09FEF9ABFB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T09:06:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1488.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1282.76</t>
+    <t xml:space="preserve">AME880912I89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEROVIAS DE MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27E736DC-9D35-4C2E-94C1-98509E232002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-22T16:43:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1146.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBU150826UG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGETICOS BUFALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C5BFA98-34E2-4C84-BFF3-AFE8CE40D0B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-19T15:45:14</t>
   </si>
   <si>
     <t xml:space="preserve">APU640930KV9</t>
@@ -519,199 +1523,124 @@
     <t xml:space="preserve">624</t>
   </si>
   <si>
-    <t xml:space="preserve">24A607A7-DA2B-406E-8FD6-C9C16E6A1EB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T10:48:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2956.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2770.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARS711101R35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTA VERONICA RAMIREZ RAMIREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26DC193F-14B0-4E90-8FBC-31087180D1E9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T09:29:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37BF1A1F-CD2D-4130-BBC0-C02F73185B71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T10:11:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61969AC9-48AF-4A09-989F-30931B98A489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-11T13:41:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8120.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMA891207NH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANA GUADALUPE CABALLERO MARTINEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7331d243-fc41-46e0-9d98-4a7b42dededa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-02T10:57:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5271.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7FFEA7E2-E7FD-4530-8B4B-C8563ECAD718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T11:37:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2777.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">901321db-f6f8-4511-9a7e-a240638086e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-02T13:01:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75356.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64962.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDI900221AG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLES Y DISPOSITIVOS INDUSTRIALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97fe7c36-0594-47c0-9211-0e8290922140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-06T11:21:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6008.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5563.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INF891031LT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACEAABAF-7CA2-4A5A-811F-BDF4B9FD5F1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T11:36:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">953.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">893.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF5552B4-54F9-4BF5-B9EA-84A886893E97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-09T16:05:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54919.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50851.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9603223-a4c7-48b6-a7b2-8be551594e89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-10T08:53:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63237.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58553.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCM011217BK6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL SURTIDOR DEL CONSTRUCTOR MAYORISTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D14EC301-9D43-4A1F-8054-2F287FD0C9F8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T13:17:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D9A25E0C-FB17-4EA3-B114-8BF79887583C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-04T09:08:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E5E1404F-B55C-4259-99F9-D7035480181D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-08T09:49:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1336.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1252.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F941EF7B-A3FE-43EA-BCAE-917A1D746B1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T08:37:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46015.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42607.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5BFFA42E-450B-4E4A-9FDE-0ED56404BF9B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-11T07:11:41</t>
+    <t xml:space="preserve">4E9228EC-B3B8-4A0F-BDDA-0B4616AFF9C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-08T12:26:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">878.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">756.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598F4B60-9DAF-47D8-A9DD-152DC5E23794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-29T11:04:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">589.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">748A9BC9-FB54-46B3-97C1-47EF94C9896F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-12T15:21:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1542.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1329.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOM540618KL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRELLA DE ORO SA DE CV MEXICO-ACAPULCO-ZIHUATANEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD76CF6D-D5CE-453B-8ED5-F3E55EDBE192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-08T12:24:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee8b6ae-065f-49d6-8f2e-a8bf3171dc17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-19T12:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2639.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2275.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3CBEF04-0D70-537D-A55E-90C9EF0C668C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-17T17:58:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D623C618-41FE-4FCC-B040-93D945920FBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-13T13:14:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODM950324V2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFICE DEPOT DE MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DF158F29-FAE4-4F24-84AC-2D417CFEE6B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-21T11:16:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1453.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1257.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAB000405BF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITS ABASTECIMIENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCFE8E53-14FE-4EF9-BA8C-97EE4DE6E85C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-07T16:14:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23BCD2DA-C650-4323-8788-A392D3D7100A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-26T20:21:59</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -723,106 +1652,16 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">TBO140305DH0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL BOX</t>
-  </si>
-  <si>
     <t xml:space="preserve">CP01</t>
   </si>
   <si>
-    <t xml:space="preserve">5fbda0bf-f989-4b89-834e-bcbd66d6c8f7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T20:06:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACT6808066SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOTRANSPORTES DE CARGA TRESGUERRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6d0f335c-a102-4f56-bfd2-12caf75fdd12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T19:16:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75F2BE14-27E5-4D0C-A1EB-00593ED82933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-02T23:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNP9211244P0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRUPO NACIONAL PROVINCIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a75d71d-821c-4bb6-a610-8505ede40788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-12T03:21:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">909d53b6-1ca6-42f0-954c-bebd64b03ccf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-13T08:52:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUVJ731111RW2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN ARTURO NUÑEZ VIDAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad137258-6919-4a81-8406-133801a3db3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-12T03:40:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2f59606-c4e2-4086-958b-94129423875a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T19:47:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f62fc4ee-7ec8-4be0-9694-66611381cfd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-12T03:40:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F8EBAA8C-2248-4267-B4FF-507C8E9D97E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-11T07:11:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPT890516JP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL PLAY TELECOMUNICACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EF6183C4-44A7-4E46-92E0-6051B695787D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-07T15:51:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1690.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1456.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
+    <t xml:space="preserve">5A48CD05-BB37-459E-BDE6-6C4297483CC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF27590B-1CB4-402D-A8A5-2A67E061C550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-06T14:48:44</t>
   </si>
 </sst>
 </file>
@@ -1269,10 +2108,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1284,24 +2123,24 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -1313,10 +2152,10 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
@@ -1328,21 +2167,21 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -1357,10 +2196,10 @@
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
@@ -1372,21 +2211,21 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1421,19 +2260,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1445,10 +2284,10 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
@@ -1460,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1517,34 +2356,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -1556,40 +2395,40 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
       <c r="K3" t="s">
         <v>24</v>
       </c>
@@ -1600,51 +2439,755 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1701,37 +3244,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -1740,39 +3283,39 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -1784,42 +3327,42 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -1828,42 +3371,42 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -1877,37 +3420,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -1916,42 +3459,42 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -1960,39 +3503,39 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -2004,39 +3547,39 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>24</v>
@@ -2053,37 +3596,37 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -2092,42 +3635,42 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -2136,42 +3679,42 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
@@ -2180,42 +3723,42 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
@@ -2224,42 +3767,42 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
@@ -2268,42 +3811,42 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
@@ -2312,42 +3855,42 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -2356,42 +3899,42 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
@@ -2400,42 +3943,42 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
@@ -2444,42 +3987,42 @@
         <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
@@ -2488,7 +4031,799 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" t="s">
+        <v>227</v>
+      </c>
+      <c r="J21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" t="s">
+        <v>234</v>
+      </c>
+      <c r="K22" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J23" t="s">
+        <v>240</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2545,34 +4880,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -2584,39 +4919,39 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="I3" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -2628,39 +4963,39 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="I4" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
@@ -2672,42 +5007,42 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>330</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -2721,37 +5056,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>337</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -2760,7 +5095,1415 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" t="s">
+        <v>356</v>
+      </c>
+      <c r="J10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" t="s">
+        <v>312</v>
+      </c>
+      <c r="J11" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>311</v>
+      </c>
+      <c r="I13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" t="s">
+        <v>337</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" t="s">
+        <v>377</v>
+      </c>
+      <c r="J15" t="s">
+        <v>378</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I16" t="s">
+        <v>383</v>
+      </c>
+      <c r="J16" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I17" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" t="s">
+        <v>384</v>
+      </c>
+      <c r="K17" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I18" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" t="s">
+        <v>384</v>
+      </c>
+      <c r="K18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C19" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>311</v>
+      </c>
+      <c r="I19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" t="s">
+        <v>398</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>311</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" t="s">
+        <v>319</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+      <c r="J21" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" t="s">
+        <v>410</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" t="s">
+        <v>412</v>
+      </c>
+      <c r="C23" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>311</v>
+      </c>
+      <c r="I23" t="s">
+        <v>324</v>
+      </c>
+      <c r="J23" t="s">
+        <v>325</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>416</v>
+      </c>
+      <c r="C24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>311</v>
+      </c>
+      <c r="I24" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>311</v>
+      </c>
+      <c r="I25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>423</v>
+      </c>
+      <c r="B26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D26" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" t="s">
+        <v>383</v>
+      </c>
+      <c r="J26" t="s">
+        <v>384</v>
+      </c>
+      <c r="K26" t="s">
+        <v>347</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>428</v>
+      </c>
+      <c r="C27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>311</v>
+      </c>
+      <c r="I27" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" t="s">
+        <v>347</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" t="s">
+        <v>431</v>
+      </c>
+      <c r="C28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>311</v>
+      </c>
+      <c r="I28" t="s">
+        <v>383</v>
+      </c>
+      <c r="J28" t="s">
+        <v>384</v>
+      </c>
+      <c r="K28" t="s">
+        <v>347</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D29" t="s">
+        <v>437</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" t="s">
+        <v>438</v>
+      </c>
+      <c r="J29" t="s">
+        <v>439</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" t="s">
+        <v>377</v>
+      </c>
+      <c r="J30" t="s">
+        <v>378</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>311</v>
+      </c>
+      <c r="I31" t="s">
+        <v>383</v>
+      </c>
+      <c r="J31" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" t="s">
+        <v>347</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B32" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>311</v>
+      </c>
+      <c r="I32" t="s">
+        <v>312</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B33" t="s">
+        <v>451</v>
+      </c>
+      <c r="C33" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+      <c r="I34" t="s">
+        <v>458</v>
+      </c>
+      <c r="J34" t="s">
+        <v>459</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>460</v>
+      </c>
+      <c r="B35" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35" t="s">
+        <v>462</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>311</v>
+      </c>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" t="s">
+        <v>466</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" t="s">
+        <v>467</v>
+      </c>
+      <c r="J36" t="s">
+        <v>468</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>469</v>
+      </c>
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" t="s">
+        <v>472</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>311</v>
+      </c>
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" t="s">
+        <v>477</v>
+      </c>
+      <c r="D38" t="s">
+        <v>478</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>311</v>
+      </c>
+      <c r="I38" t="s">
+        <v>377</v>
+      </c>
+      <c r="J38" t="s">
+        <v>378</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2817,37 +6560,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -2856,39 +6599,39 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>489</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>491</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -2900,42 +6643,42 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>493</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>495</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -2944,42 +6687,42 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>498</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>494</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>495</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -2988,42 +6731,42 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -3032,42 +6775,42 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>508</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>509</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>510</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -3076,42 +6819,42 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>494</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>495</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
@@ -3120,39 +6863,39 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>515</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>516</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I9" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="K9" t="s">
         <v>24</v>
@@ -3164,42 +6907,42 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -3208,39 +6951,39 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>521</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>524</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>525</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>526</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -3252,39 +6995,39 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>529</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I12" t="s">
-        <v>211</v>
+        <v>531</v>
       </c>
       <c r="J12" t="s">
-        <v>212</v>
+        <v>532</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -3296,42 +7039,42 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>500</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>483</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>494</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>495</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>496</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
@@ -3340,139 +7083,7 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3529,30 +7140,30 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>538</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>539</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
@@ -3564,38 +7175,38 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>538</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>539</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
@@ -3604,38 +7215,38 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>537</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>538</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>539</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
@@ -3644,383 +7255,7 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" t="s">
-        <v>242</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>235</v>
-      </c>
-      <c r="J6" t="s">
-        <v>236</v>
-      </c>
-      <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" t="s">
-        <v>236</v>
-      </c>
-      <c r="K8" t="s">
-        <v>161</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
-        <v>257</v>
-      </c>
-      <c r="J11" t="s">
-        <v>258</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -13,6 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="30" sheetId="2" r:id="rId5"/>
+    <sheet name="04" sheetId="3" r:id="rId6"/>
+    <sheet name="03" sheetId="4" r:id="rId7"/>
+    <sheet name="01" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t xml:space="preserve">UUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE COMPROBANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODO DE PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMA DE PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: REGIMEN FISCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: USO CFDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A7E7748-736B-4032-BEAB-325C9A34D6C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T14:36:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171586.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158876.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVN7407019H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBERIAS Y VALVULAS DEL NOROESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEI1804262B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e382e73-74cd-4ccf-ac0a-f2427793b34a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T21:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1193.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIV950315AR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIOS INTERNACIONALES VICAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0004D841-2F48-46F2-8A7E-156589784D3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T15:44:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLU080610C81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETN TURISTAR LUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4AA74EE5-DF1B-4F15-9920-2C34288F56FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T12:25:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20579.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19055.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00bb80b5-7f86-4f49-a103-2853cfd74c0a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T07:49:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">874.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">753.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAN240913JR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOBUSES ABC DEL NOROESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D588444-7705-4A95-B283-1E1CA673D729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T13:59:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD180629J67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BC. 2018</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,4 +537,476 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -13,10 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="30" sheetId="2" r:id="rId5"/>
-    <sheet name="04" sheetId="3" r:id="rId6"/>
-    <sheet name="03" sheetId="4" r:id="rId7"/>
-    <sheet name="01" sheetId="5" r:id="rId8"/>
+    <sheet name="04" sheetId="2" r:id="rId5"/>
+    <sheet name="01" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -72,106 +70,88 @@
     <t xml:space="preserve">RECEPTOR: USO CFDI</t>
   </si>
   <si>
-    <t xml:space="preserve">4A7E7748-736B-4032-BEAB-325C9A34D6C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-04T14:36:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171586.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158876.71</t>
+    <t xml:space="preserve">0004D841-2F48-46F2-8A7E-156589784D3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T15:44:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006.47</t>
   </si>
   <si>
     <t xml:space="preserve">MXN</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
     <t xml:space="preserve">PUE</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TVN7407019H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBERIAS Y VALVULAS DEL NOROESTE</t>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLU080610C81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETN TURISTAR LUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEI1804262B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e382e73-74cd-4ccf-ac0a-f2427793b34a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T21:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1193.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIV950315AR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICIOS INTERNACIONALES VICAM</t>
   </si>
   <si>
     <t xml:space="preserve">601</t>
   </si>
   <si>
-    <t xml:space="preserve">CEI1804262B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3e382e73-74cd-4ccf-ac0a-f2427793b34a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-02T21:55:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1193.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1032.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIV950315AR9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICIOS INTERNACIONALES VICAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0004D841-2F48-46F2-8A7E-156589784D3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-02T15:44:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2327.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLU080610C81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETN TURISTAR LUJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4AA74EE5-DF1B-4F15-9920-2C34288F56FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-05T12:25:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20579.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19055.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03</t>
+    <t xml:space="preserve">2D588444-7705-4A95-B283-1E1CA673D729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T13:59:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD180629J67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BC. 2018</t>
   </si>
   <si>
     <t xml:space="preserve">00bb80b5-7f86-4f49-a103-2853cfd74c0a</t>
@@ -186,31 +166,10 @@
     <t xml:space="preserve">753.44</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAN240913JR2</t>
   </si>
   <si>
     <t xml:space="preserve">AUTOBUSES ABC DEL NOROESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D588444-7705-4A95-B283-1E1CA673D729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-05T13:59:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBD180629J67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROUP BC. 2018</t>
   </si>
 </sst>
 </file>
@@ -631,6 +590,50 @@
         <v>27</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -685,37 +688,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -729,270 +732,34 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>

--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -13,8 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="04" sheetId="2" r:id="rId5"/>
-    <sheet name="01" sheetId="3" r:id="rId6"/>
+    <sheet name="30" sheetId="2" r:id="rId5"/>
+    <sheet name="04" sheetId="3" r:id="rId6"/>
+    <sheet name="03" sheetId="4" r:id="rId7"/>
+    <sheet name="01" sheetId="5" r:id="rId8"/>
+    <sheet name="undefined" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -70,6 +73,588 @@
     <t xml:space="preserve">RECEPTOR: USO CFDI</t>
   </si>
   <si>
+    <t xml:space="preserve">FFD3C4E2-E79C-4BF8-A0BE-1AB43ADC06CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T08:39:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46568.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43119.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVN7407019H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBERIAS Y VALVULAS DEL NOROESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEI1804262B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD2664C7-38B1-4CC8-A4CE-365CC0DFA4E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T14:03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186704.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172874.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6adfa82-4320-4a72-ac1f-024ddc6a1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T11:33:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10412.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8976.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGP970522EE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSORCIO GASOLINERO PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26483BE7-E1FD-4B34-8B8E-3F4F106DA014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T15:35:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62428.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53817.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR061124SNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIRENLINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2941A357-ECE4-4F17-98BF-D280FAB5CC3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T11:15:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21901.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20278.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97B77C35-5FB9-41AA-A5F2-6CF73E050D9C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T14:11:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33583.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31096.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A7E7748-736B-4032-BEAB-325C9A34D6C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T14:36:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171586.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158876.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCB1631E-CB61-4CF5-82EB-D7415ECF25E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T14:11:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2970.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARS711101R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA VERONICA RAMIREZ RAMIREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECF44077-E61C-4AAC-9BE3-52594ACF7290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T10:02:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARA520424BC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRA NAVARRO RENTERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D88250DF-4612-D94D-9E3E-E1199952367E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T13:02:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAL951121N69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFACCIONES Y ACCESORIOS LOUBET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d97439c1-b741-4fa1-9ab0-faf3f1325727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T11:03:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA050518RL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEROENLACES NACIONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c375e098-d67b-4b3c-b315-e0195d4d13dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T17:57:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3330.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3083.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDM001017AS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME DEPOT MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D685F7FD-F389-42B1-A729-39AFBA793C95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T10:40:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50EE727-50B5-4600-A786-A7BA47A775DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T09:44:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3915.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4028.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CED42363-7EC9-4935-9730-6CD23B25452D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T10:43:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c0b33052-8633-4eb6-ae52-41b2b1bf65c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T15:00:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1463.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1266.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTE061024NX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETROLIFEROS LA TERRITORIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA8971FD-EDE6-4686-9E1A-9F2E6E1DC25B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T18:02:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">979.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">909.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS970326CK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER SERVICIO SALCIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91DE1C10-BF6F-4531-95D4-00580998A1C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T11:30:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1062.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">985.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRC170125G63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO EL REY CORPORATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aac97d27-de87-4123-b0e9-b44cf8360482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T11:03:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A799DA39-A258-4BD5-8A33-B5DE52886C1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T14:46:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">382.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD180629J67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BC. 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6CA2C26-8AB9-5CE7-9D09-5AED75997382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T00:18:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHL211229MJ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRENDADORA HOTELERA LINDO MAZATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33ad5350-c8c2-4c3a-b455-92fb58c9e545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T09:40:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1338.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1227.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20CA2317-956B-4810-8FE8-2CCDF81916BF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T12:17:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLU080610C81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETN TURISTAR LUJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1628031d-116c-4868-b111-1ebe48b1bb07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T10:03:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36812320-CA5F-4B6C-8ED0-57BDAEBF6DF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T13:29:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14999.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12930.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOR170220TX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4524212f-c7b6-4fb9-91a0-d3da60726b39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T09:43:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8280.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7340.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644951C5-FB89-43D4-A118-BD8471C19551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T15:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAJ891028Q54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN SIMON SERRANO ARROYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62738faa-f974-4902-8acc-00dba8efbc7c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T16:27:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGU050301B52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETROSERVICIOS DE GUASAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5022d6e1-ed45-4070-8392-caa05ff6b55b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T10:05:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">976.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS000419QJ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASOMICH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332f8754-b1f5-4c86-86bb-c2be3f449938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1723.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1656.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181EA150-ACAD-4F6C-A49B-4849DDD35384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T13:04:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4714.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4365.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJC910329GW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINDY STEPHANIE FRAUSTO JAIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8E1EAAF6-740C-4EBD-99E8-6B26F7BDAD8E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T09:48:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3029.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2805.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET910308JB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTOS ELECTRICOS DE TIJUANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91ebfa40-efb5-4685-9a07-34c56398d291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T09:38:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6692.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6491.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6ee856ce-3654-4cef-9595-2297c7f57c60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T11:56:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET980918T19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETROAGUILA</t>
+  </si>
+  <si>
     <t xml:space="preserve">0004D841-2F48-46F2-8A7E-156589784D3F</t>
   </si>
   <si>
@@ -82,36 +667,6 @@
     <t xml:space="preserve">2006.47</t>
   </si>
   <si>
-    <t xml:space="preserve">MXN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLU080610C81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETN TURISTAR LUJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEI1804262B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G03</t>
-  </si>
-  <si>
     <t xml:space="preserve">3e382e73-74cd-4ccf-ac0a-f2427793b34a</t>
   </si>
   <si>
@@ -130,7 +685,436 @@
     <t xml:space="preserve">SERVICIOS INTERNACIONALES VICAM</t>
   </si>
   <si>
-    <t xml:space="preserve">601</t>
+    <t xml:space="preserve">F654D454-C5B1-5023-8B7F-F0E142905255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T13:59:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1596.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1375.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FER8907113J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRECSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBECE84D-B55B-4569-819D-03894AFD10DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T12:10:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33916.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29238.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E327C5E4-5070-43D0-8D5C-760F0E702AAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T16:17:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53000.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45689.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMS830328PT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGINIO GONZALEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D53F5315-061E-4ADF-B05E-43E2333B8397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T08:35:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4484E9E-0C08-4AE4-B696-8F4639E46A9F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T10:33:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3078.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GJC110302N16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRUPO JCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8E9C6B7-4015-4969-9FEB-F9A1210C74BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T10:11:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10825.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10024.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14030C0-172D-4C25-A90F-B57A52D9C8F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T16:08:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4683.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURC910317820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESAR URIEL BUZANI RAYON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D316FE52-7ACC-4BA9-A76E-5D3B491742C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T09:43:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1535.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1422.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B0DEC1AF-2B9B-4FE2-8956-518FDF5D036B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T09:30:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1930.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1787.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88E7BF9A-C8A2-4FB3-B3AE-F572C4D15FCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T10:57:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36E2A230-FE25-494B-8845-D8E3E3684245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T12:16:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15296.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESM831024PX0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICA SAN MIGUEL DE MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73752648-CBF7-4925-8832-F47C1DC68908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T08:08:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4218.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3905.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27969546-923C-482A-9CE6-4CA17D75E290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T15:33:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53817.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25797160-6686-4816-9A31-91F95F126EBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T14:34:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8303E782-363F-4052-B46F-CADF2EF16382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T13:57:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95de6305-970f-45d3-b272-b79c4a494d7b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01T11:33:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9010.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30D25DA7-F7D7-4A4F-A587-060E8545EBFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T13:39:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9080.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7828.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAC090929BL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESURTIDORA DE AIRE Y CALEFACCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">008FEDAB-0CA2-4381-B83D-8FAAC703A30D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T14:08:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6C6D52F1-CB3C-49B6-B615-D5D6AE0DF78D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18739.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16154.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLI911018KM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMAPROYECTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4AA74EE5-DF1B-4F15-9920-2C34288F56FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T12:25:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20579.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19055.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5E59838-B1A7-4A3C-85F5-E6DBB9EF0DF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T14:14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3F4F223-B59F-4CE4-9B86-DD23FE09778C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T16:07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2C7EFB3-8559-974B-AFA1-3112E59DB911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T13:23:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODM950324V2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFICE DEPOT DE MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAFC28CA-E40E-4322-B454-E57F8BD7566E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-05T12:13:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a416113c-a2eb-4e38-939b-13ce29d8746a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T23:06:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAE930211MZ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOTELERA AEROPUERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71DA70F0-F7DD-41A7-AA10-81A8A328AD77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T18:32:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">672.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAAN590914D54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORA GARCIA ASTIAZARAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17B4860-B33C-4C75-AB2F-70D7572BB786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T11:56:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAAO770829ET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSCAR CASALES AVILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A08CB0B1-66F0-4455-B663-BEA5443C324B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-02T15:45:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CES770630HB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMITE ESTATAL DE SANIDAD VEGETAL DEL ESTADO DE SINALOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9A78EE95-4456-5ABC-9B7B-4031D55F1A81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T09:10:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNI970829JR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONDO NACIONAL DE INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13026437-00AB-55FB-90E8-D8CDBD9AD4E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-04T09:10:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296C5AA4-A9E5-4FB4-920F-D9D846F7BAD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-07T17:59:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESN790718N39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPOS Y SOLDADURAS DEL NORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">432E8451-5991-4A9F-8B7D-56B715BAE583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-03T12:59:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEC1411282LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERADORA DE SERVICIOS PAQUETEXPRESS</t>
   </si>
   <si>
     <t xml:space="preserve">2D588444-7705-4A95-B283-1E1CA673D729</t>
@@ -145,15 +1129,6 @@
     <t xml:space="preserve">98.00</t>
   </si>
   <si>
-    <t xml:space="preserve">01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBD180629J67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROUP BC. 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">00bb80b5-7f86-4f49-a103-2853cfd74c0a</t>
   </si>
   <si>
@@ -170,6 +1145,42 @@
   </si>
   <si>
     <t xml:space="preserve">AUTOBUSES ABC DEL NOROESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">986C3C90-ECB3-4CE5-9BC3-1A13B7ADFDC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T07:56:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBO140305DH0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7BAF28F2-0E58-4969-8A88-CC87DC21F96B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-08T07:56:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPT890516JP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PLAY TELECOMUNICACIONES</t>
   </si>
 </sst>
 </file>
@@ -616,21 +1627,241 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -688,37 +1919,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -732,16 +1963,1344 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" t="s">
+        <v>146</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -753,13 +3312,13 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>24</v>
@@ -771,7 +3330,1599 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>222</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>222</v>
+      </c>
+      <c r="I20" t="s">
+        <v>295</v>
+      </c>
+      <c r="J20" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" t="s">
+        <v>341</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" t="s">
+        <v>355</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I13" t="s">
+        <v>360</v>
+      </c>
+      <c r="J13" t="s">
+        <v>361</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" t="s">
+        <v>371</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -705,6 +705,94 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/excel/facturas.xlsx
+++ b/public/excel/facturas.xlsx
@@ -13,6 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="28" sheetId="2" r:id="rId5"/>
+    <sheet name="30" sheetId="3" r:id="rId6"/>
+    <sheet name="99" sheetId="4" r:id="rId7"/>
+    <sheet name="01" sheetId="5" r:id="rId8"/>
+    <sheet name="03" sheetId="6" r:id="rId9"/>
+    <sheet name="undefined" sheetId="7" r:id="rId10"/>
+    <sheet name="04" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +31,1598 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t xml:space="preserve">UUID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONEDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE COMPROBANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METODO DE PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMA DE PAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMISOR: REGIMEN FISCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR: USO CFDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f097b9b1-b167-47ec-a6df-d7b39fbe645c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T17:22:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">624.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDM001017AS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME DEPOT MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEI1804262B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13F651F0-1E07-4E9A-9528-3B3056EB5D5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T16:27:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBA220211MR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRETERIA BALDERRAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326EF0F3-F420-4747-899F-E792AC78B404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T14:17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1836.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1700.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JISM601102LD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIO JIMENEZ SANCHEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0B7FB300-D512-46AC-8488-A37ACF8A03F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T10:54:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15012.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13900.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TVN7407019H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBERIAS Y VALVULAS DEL NOROESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5318F34E-D6D2-4267-A3C6-45ED41CFCAA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T10:02:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">432.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9DFF3002-311D-48ED-8E6F-4CC62226742B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T09:50:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9753.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9030.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6047FE9A-2C64-41C7-AD6E-99E483BF1092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:48:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33851.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29182.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME211201URA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBV MERCANTIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20509304-9A05-47CE-9445-6A94A8DA59F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:38:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25148.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23285.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46F8FFD0-0699-4290-BDE3-52E25DBAB1F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-12T11:37:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4752.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4400.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8CE4A149-480A-430F-A6EA-1F2366DED1CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T04:07:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPT890516JP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PLAY TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5D0F6540-A430-4FB6-8305-385B16F0421E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EF003269-1A89-4D85-8641-E720DCAA4E8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBO140305DH0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL BOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD7243A5-5DA5-4280-A790-2EBB1940DAB0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:45:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1666.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1436.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604F3FE2-ABDF-4F20-802C-5E2AE9DBD638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T15:01:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMN780830F3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATALIA BOILEVE MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBF3EC7D-56BD-513C-BC50-E8280B5B8F96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T13:14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNI970829JR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FONDO NACIONAL DE INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2e2bac3-40a5-4c65-b2e4-7dec4f4d3041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T13:03:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSA171003QCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA SANTA ANA ALTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac9dea39-4e87-4e02-8326-c667643b8f51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T08:44:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN790810M82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTANDREU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0B1A90C2-CB6A-4312-9840-4F776E36A3F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T08:32:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">966.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIBA900824KSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO ELIAS BENITEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9E03C63-30CC-46F2-8073-76ED336A457C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T16:31:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1666.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1561.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURC910317820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESAR URIEL BUZANI RAYON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C62CE244-1772-414A-90A0-EFA96A7E0848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T16:29:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F89FD96C-20B6-41AF-941A-F439B7AC11F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T16:28:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A14F55BB-4F0B-48C5-981D-7CC4A0AE8DE9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T14:44:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMS421231I45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTITUTO MEXICANO DEL SEGURO SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30E0C524-2FA2-4998-A874-3AB5493C94B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T14:44:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62C6AC4F-A0E7-479D-AD21-767A160222B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T14:43:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">779.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951009F-F3B5-4C0D-9999-6A26D27287A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T14:43:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">952.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFDF6675-28DD-5FCA-8C81-01B571D49160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T13:21:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2EA800D9-5357-5972-A81A-591ECDCABA7A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T13:21:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPF6307036N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMINOS Y PUENTES FEDERALES DE INGRESOS Y SERVICIOS CONEXOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88E48942-1FAC-11F0-A776-6702751298B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T13:03:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAL091028SP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA DE AUTOPISTAS Y LIBRAMIENTOS DEL PACIFICO NORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7E75BFB1-1FAB-11F0-954B-1B4CB267D30A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:56:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA030306LA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA DE CARRETERAS, AUTOPISTAS Y LIBRAMIENTOS DE LA REPUBLICA MEXICANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479FAA2E-1FAB-11F0-882F-B73D97A2B8C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:54:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14F5B1C0-1FAB-11F0-BB5F-0575DBE41B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:53:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">049106C3-1FAA-11F0-8863-6B80E0E27A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:45:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAG110830A23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA AUTOPISTA GUADALAJARA-TEPIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841ee040-9096-4f3e-9ad1-3d08a83c89ee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:35:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM120131RD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCESIONARIA DE AUTOPISTAS DE MICHOACAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b416f79e-a5b6-4ee8-b44a-cb2b43bba12a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:31:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCO0708136F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED DE CARRETERAS DE OCCIDENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA2FDA1-508E-4E11-99C5-629314BEE07A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:13:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GES8101015I7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOBIERNO DEL ESTADO DE SINALOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMATIZACION Y MANTENIMIENTO INDUSTRIAL RULES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5ee39402-3a62-4f43-8253-d521c5d28903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:13:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCO140710A50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBRAMIENTO CIUDAD OBREGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9B348BA5-71A2-4A4E-B493-4AEF68EDE89A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCFE3D55-902B-4D8D-AD7E-140FB6DE0AE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T12:12:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675f425f-41b7-43e7-9997-fc8eec277101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T11:22:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95313340-1fd9-4adb-82ad-a1c38cc340c8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T11:17:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHO161011US3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANESA HOLDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">262068c1-b86b-4bc8-8b35-8f4b0988dcba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T11:14:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3EEE6AFC-360A-5614-8F11-9A4DF09553CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T11:09:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E93110E5-55FE-5794-B462-A185E81D308E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T11:03:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">447.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B916C7F9-5B20-4E83-906A-905406A22C1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T10:25:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">272.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGD7406067X0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLORES DIAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2C723E9-E38F-4017-9138-234A9706B151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T09:11:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAJC910329GW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINDY STEPHANIE FRAUSTO JAIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457CC90E-8261-43B4-A8E5-6921727A92D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T11:58:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARA520424BC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRA NAVARRO RENTERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1CDFC40F-8600-4A5E-874D-9870C62BF453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T15:35:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DGM230116H72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUIDORA GRUPO MITCHEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FF713554-26D1-4903-90CD-0A8D6D65B2F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T08:37:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">925.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">856.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESN790718N39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPOS Y SOLDADURAS DEL NORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32056FA8-1A2E-11F0-A4D0-00155D014009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T13:16:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISD950921HE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASE, SERVICIOS ELECTRONICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5972a175-6094-4499-87e3-346975db010c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T21:47:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP910213I6A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTEL CERRO PARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC3A7F79-22BC-4CF8-9D4D-673494845B26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-12T13:11:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1505.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1602.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8316D1D-12A9-4E92-B922-6E3DA9882818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T14:17:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54064.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46607.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM170804R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRMAR EMPRESAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C74C23A4-207A-11F0-9666-00155D012007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T13:40:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42985.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37056.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZME240315QY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARUGO MEXICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C491D74D-2075-11F0-9666-00155D012007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T13:04:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31770.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27388.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZARM960607P50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICIO ULISES ZAMUDIO RUIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29C5A867-2074-11F0-A7B5-00155D014009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T12:52:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166360.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143414.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM2405078U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCTIO &amp; MERCATURAM MUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B666AD1-2073-11F0-A7B5-00155D014009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T12:45:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68639.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59172.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPT2005131H7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMENTACIONES PERFORACIONES TERRACERIAS E INSTALACION DE TUBERIAS ITZAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5FE890A-CDED-41EE-B137-6967B43EA0DF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T11:26:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4629.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">068CF216-1516-465E-96C5-53FE34BC5B92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T11:07:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73738.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63567.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKA161128832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCTORA KATIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">938F56BC-F00F-449A-9905-4D303DD2DC4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T10:38:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82425.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71056.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAM050215JK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCCIONES Y ARRENDAMIENTO DE MAQUINARIA COARBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC7C6FDE-622C-4AE1-8DE8-AD49CE443028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-23T00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8651.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7458.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLI911018KM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIMAPROYECTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5A2E3BF1-E8E3-47D8-BB07-70ADFD733770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T17:12:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8326.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAGV8907266C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR GARCIA GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204c699a-76cc-4122-add8-7955e293e60a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T13:23:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3770.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INF891031LT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07C95699-79EF-4ACB-BBDD-A2A98C80F5CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T10:53:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9465.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8764.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F76A9118-26FD-46BD-87D4-12A762D707DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T10:21:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7189.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6657.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a19b7f61-3388-42e0-8478-0092d934ac69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T09:46:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8620.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGP970522EE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSORCIO GASOLINERO PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB3631BA-8252-4847-BF94-DD2E23A88E8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T09:17:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52650.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48750.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGP2207139QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACEROS GALVANIZADOS EL PUERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB2DDAD4-2934-48AB-9A60-152FC4E570F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T17:52:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7504.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8258956D-775B-479C-BC19-EEFE3AA7B874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T17:49:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52717.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7499E87F-C355-4338-8A33-AA6F8E3A6C87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T17:31:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10906.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44EDF3EF-6DDE-408B-A0CB-2D29C6437602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T14:29:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARS711101R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTA VERONICA RAMIREZ RAMIREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F98EA6BF-E686-476C-88BD-EAF5FC4170E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T09:29:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2700.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIGB830511FH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANCA ESTELA VILLEGAS GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE3709B0-2F71-480A-B12C-A9C47704ABE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T15:09:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48275.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOMS830328PT8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERGINIO GONZALEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED5CA951-F04F-4151-9628-A819DB9A9B80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T12:18:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5800.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSI190130MQ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEINSA SOLUCIONES INTEGRALES EN SISTEMAS APLICADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6FA66BD-7527-49A9-8657-1C20A9406C8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T09:21:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10109.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10010.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B449BF02-F14A-4414-BDB8-E63EFAEA1FDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T14:53:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3865.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3331.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIN050504Q34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECONOCOMEX INTERNACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7d921418-89b4-4d48-9bef-8932638897dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T14:45:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2164.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4F293C7-9EB6-4CD6-9EB2-093E20520017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T10:49:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3BA23DE4-087E-4E48-939E-C708C1FB434B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T09:58:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20AE91F4-838E-4447-B4EC-9A689A141527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T09:46:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9753.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9030.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD7EB37C-2077-4965-9B0D-D60459DF12A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:35:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5DBD726A-B961-49EA-BFC1-AF98611D799C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:32:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4200.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3620.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICO921103UD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORTACIONES CORTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76BB1C41-FE82-4FF9-9A44-6DCE61ECE441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T11:30:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">771.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A8CA35B2-7FEC-497E-AF12-AD4135B95A47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T15:17:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32361.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29964.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1E5D3FB-206A-463E-90E5-EC641CB70B38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T13:56:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74787.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69248.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ACB99D9-3629-475A-8E1C-04D1BEBF7A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T12:06:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204735.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189569.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE1185DD-19E2-4D40-BDA8-36394BBDBBCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-12T11:34:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49C23451-5467-447C-8E53-083991074687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-22T17:38:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCA9702041X7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDENAS CONSULTORES Y ASOCIADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1D507919-4DDF-4497-89B2-E897058471E5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-21T14:45:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOAM830821972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTHA EDITH TOVAR ARADILLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a5570d-4480-414f-a85e-6aabe88e3e96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-17T09:40:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2327.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F0622810-67F0-4FC1-94E6-F003C1EDE62D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T14:38:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8143.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7540.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAV581223HD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR RAMON GOMEZ ACEVEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52bbbfbf-af3d-4850-bbf6-ec31580ee1cf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-16T08:00:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1518.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1408.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET040903DH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETROMAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95b055be-af1c-43e2-aa32-dd8d59e644db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-15T00:38:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1382.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1275.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTE2003102G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODOO TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629fdc3a-2c19-48e2-a359-330915029738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T15:47:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">981.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANA050518RL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEROENLACES NACIONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df4bc1e5-d7f9-4eb0-8c3a-92c4adee6501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T14:06:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3126.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2895.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAR680425HB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCIA ARJONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06524b86-616d-46bf-b206-994196fabaf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T12:37:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">823.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">762.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1B7AA843-B4E0-4D80-98D1-83EE61B7FD4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T10:20:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC060315963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRONICA SANTA CATARINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7149E7B0-E9B6-4158-A9C2-DE692969F7D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T09:52:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">861.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD180629J67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BC. 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8d52a81e-23b6-423b-bf56-d742ee27a03c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T08:35:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6e7193d-b225-4788-a43b-122348d520dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-14T08:35:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2045.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB6CB238-CA96-4833-BD5B-8F41268D20FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-12T20:22:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22999.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19826.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SED881215J89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMAS EMPRESARIALES DABO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I04</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,4 +1947,4764 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>204</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>224</v>
+      </c>
+      <c r="J28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>255</v>
+      </c>
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>288</v>
+      </c>
+      <c r="I5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" t="s">
+        <v>314</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>324</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" t="s">
+        <v>335</v>
+      </c>
+      <c r="J10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I11" t="s">
+        <v>341</v>
+      </c>
+      <c r="J11" t="s">
+        <v>342</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" t="s">
+        <v>347</v>
+      </c>
+      <c r="J12" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D14" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>288</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" t="s">
+        <v>362</v>
+      </c>
+      <c r="J15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16" t="s">
+        <v>368</v>
+      </c>
+      <c r="J16" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D20" t="s">
+        <v>382</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" t="s">
+        <v>383</v>
+      </c>
+      <c r="J20" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" t="s">
+        <v>389</v>
+      </c>
+      <c r="J21" t="s">
+        <v>390</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" t="s">
+        <v>395</v>
+      </c>
+      <c r="J22" t="s">
+        <v>396</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>288</v>
+      </c>
+      <c r="I23" t="s">
+        <v>400</v>
+      </c>
+      <c r="J23" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" t="s">
+        <v>383</v>
+      </c>
+      <c r="J24" t="s">
+        <v>384</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I25" t="s">
+        <v>410</v>
+      </c>
+      <c r="J25" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>288</v>
+      </c>
+      <c r="I26" t="s">
+        <v>347</v>
+      </c>
+      <c r="J26" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>288</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>288</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D29" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>288</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>426</v>
+      </c>
+      <c r="B31" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D31" t="s">
+        <v>429</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I31" t="s">
+        <v>430</v>
+      </c>
+      <c r="J31" t="s">
+        <v>431</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>434</v>
+      </c>
+      <c r="D32" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" t="s">
+        <v>430</v>
+      </c>
+      <c r="J32" t="s">
+        <v>431</v>
+      </c>
+      <c r="K32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>288</v>
+      </c>
+      <c r="I33" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" t="s">
+        <v>369</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B34" t="s">
+        <v>441</v>
+      </c>
+      <c r="C34" t="s">
+        <v>442</v>
+      </c>
+      <c r="D34" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>288</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D35" t="s">
+        <v>447</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>288</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>463</v>
+      </c>
+      <c r="J2" t="s">
+        <v>464</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>474</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J5" t="s">
+        <v>480</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6" t="s">
+        <v>486</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>462</v>
+      </c>
+      <c r="I7" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>462</v>
+      </c>
+      <c r="I8" t="s">
+        <v>497</v>
+      </c>
+      <c r="J8" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>462</v>
+      </c>
+      <c r="I10" t="s">
+        <v>507</v>
+      </c>
+      <c r="J10" t="s">
+        <v>508</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>462</v>
+      </c>
+      <c r="I11" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" t="s">
+        <v>514</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" t="s">
+        <v>518</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I12" t="s">
+        <v>491</v>
+      </c>
+      <c r="J12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>462</v>
+      </c>
+      <c r="I13" t="s">
+        <v>491</v>
+      </c>
+      <c r="J13" t="s">
+        <v>492</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>523</v>
+      </c>
+      <c r="B14" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" t="s">
+        <v>528</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>